--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8BB7BA-CF85-EA48-8520-10CDD2DBB8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB57C808-0541-DC41-AE6C-4CD6C95E5DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$197</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="406">
   <si>
     <t>Primarni jezik</t>
   </si>
@@ -866,6 +866,390 @@
   </si>
   <si>
     <t>Ostali jezici 5</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/637</t>
+  </si>
+  <si>
+    <t>https://www.autonomija.info</t>
+  </si>
+  <si>
+    <t>https://becejski-mozaik.co.rs</t>
+  </si>
+  <si>
+    <t>http://www.bunjevci.net/bocko</t>
+  </si>
+  <si>
+    <t>http://www.bunjevci.net/bunjevacke-novine</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1408</t>
+  </si>
+  <si>
+    <t>https://csaladikor.com</t>
+  </si>
+  <si>
+    <t>https://far.rs/sr/pocetna/</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/779</t>
+  </si>
+  <si>
+    <t>https://hetnap.rs</t>
+  </si>
+  <si>
+    <t>https://hl.rs</t>
+  </si>
+  <si>
+    <t>http://www.hrvatskarijec.rs</t>
+  </si>
+  <si>
+    <t>http://www.jopajtas.com</t>
+  </si>
+  <si>
+    <t>http://kanizsaiujsag.rs</t>
+  </si>
+  <si>
+    <t>https://www.kepesifi.com</t>
+  </si>
+  <si>
+    <t>http://www.hrvatskarijec.rs/stranica/kuzis/6/</t>
+  </si>
+  <si>
+    <t>https://www.libertatea.ro</t>
+  </si>
+  <si>
+    <t>https://luginalajm.com</t>
+  </si>
+  <si>
+    <t>https://www.magyarszo.rs</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/928</t>
+  </si>
+  <si>
+    <t>http://ministrialajmeve.com/n/</t>
+  </si>
+  <si>
+    <t>https://sr.wikipedia.org/wiki/Народни_календар_(годишњак)</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/764</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/942</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1017</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/674</t>
+  </si>
+  <si>
+    <t>https://www.slovackizavod.org.rs/sr/knjizevnost/casopis-za-literaturu-i-kulturu-novi-zivot</t>
+  </si>
+  <si>
+    <t>https://www.listpolimlje.info</t>
+  </si>
+  <si>
+    <t>http://www.preshevaobserver.com</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/858</t>
+  </si>
+  <si>
+    <t>http://q-media.rs</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/757</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/715</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/762</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/724</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/841</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1157</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/695</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/937</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/945</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/843</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/696</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/786</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/850</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/941</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1403</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/926</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/856</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/759</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/en/media-service-providers-register/620</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/875</t>
+  </si>
+  <si>
+    <t>http://rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/888</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/811</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/842</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/778</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/709</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/867</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/627</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/629</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/763</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/703</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/855</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/790</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/633</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/771</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/873</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/618</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/878</t>
+  </si>
+  <si>
+    <t>http://rem-test.itcon.rs/en/media-service-providers-register/854</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/676</t>
+  </si>
+  <si>
+    <t>http://rtcaribrod.rs/sr/почетна/</t>
+  </si>
+  <si>
+    <t>http://www.ruskeslovo.com</t>
+  </si>
+  <si>
+    <t>http://www.ruskeslovo.com/rutenpres/</t>
+  </si>
+  <si>
+    <t>https://sanapress.info</t>
+  </si>
+  <si>
+    <t>http://sandzackatv.rs</t>
+  </si>
+  <si>
+    <t>http://sandzacke.rs</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1372</t>
+  </si>
+  <si>
+    <t>http://sandzaknews.rs</t>
+  </si>
+  <si>
+    <t>https://sandzakpress.net</t>
+  </si>
+  <si>
+    <t>https://spektri.tv</t>
+  </si>
+  <si>
+    <t>http://rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1608</t>
+  </si>
+  <si>
+    <t>https://szabadmagyarszo.com</t>
+  </si>
+  <si>
+    <t>http://temeriniujsag.info/fooldal</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/931</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/650</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/644</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/611</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1099</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/602</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1492</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/973</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/652</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1373</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1061</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1097</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/605</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/672</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1016</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/654</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1032</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1069</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/599</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/671</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/670</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/677</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/664</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/930</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/884</t>
+  </si>
+  <si>
+    <t>http://rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1368</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1036</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/en/media-service-providers-register/1510</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1122</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/1101</t>
+  </si>
+  <si>
+    <t>http://www.rem.rs/sr-lat/registar-pruzalaca-medijskih-usluga/963</t>
+  </si>
+  <si>
+    <t>https://tvinfobosilegrad.co.rs</t>
+  </si>
+  <si>
+    <t>https://www.vajma.info</t>
+  </si>
+  <si>
+    <t>http://www.varoske.net</t>
+  </si>
+  <si>
+    <t>http://www.croinfo.rs/</t>
+  </si>
+  <si>
+    <t>https://www.glaspress.rs</t>
+  </si>
+  <si>
+    <t>https://hanapress.net</t>
+  </si>
+  <si>
+    <t>http://info.hlas.rs/</t>
+  </si>
+  <si>
+    <t>http://www.makinfo.rs/</t>
+  </si>
+  <si>
+    <t>http://presheva.com</t>
+  </si>
+  <si>
+    <t>https://www.rtvpresheva.com</t>
+  </si>
+  <si>
+    <t>https://www.snews.rs/</t>
+  </si>
+  <si>
+    <t>http://www.storyteller.rs/</t>
+  </si>
+  <si>
+    <t>http://www.niumiic.rs/contacts/</t>
   </si>
 </sst>
 </file>
@@ -1251,16 +1635,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.25">
@@ -1300,9 +1684,12 @@
       <c r="L1" s="5" t="s">
         <v>268</v>
       </c>
+      <c r="M1" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,8 +1718,11 @@
       <c r="L2" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1361,8 +1751,11 @@
       <c r="L3" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
@@ -1389,8 +1782,11 @@
       <c r="L4" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>197</v>
       </c>
@@ -1417,8 +1813,11 @@
       <c r="L5" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1449,8 +1848,11 @@
       <c r="L6" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1479,8 +1881,11 @@
       <c r="L7" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1509,8 +1914,11 @@
       <c r="L8" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
@@ -1541,9 +1949,12 @@
       <c r="L9" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="M9" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1569,9 +1980,12 @@
       <c r="L10" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="M10" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1599,8 +2013,11 @@
       <c r="L11" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1625,8 +2042,11 @@
         <v>264</v>
       </c>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1653,8 +2073,11 @@
       <c r="L13" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1681,9 +2104,12 @@
       <c r="L14" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M14" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1709,8 +2135,11 @@
       <c r="L15" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1735,8 +2164,11 @@
         <v>264</v>
       </c>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>195</v>
       </c>
@@ -1764,7 +2196,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1793,8 +2225,11 @@
       <c r="L18" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>194</v>
       </c>
@@ -1823,8 +2258,11 @@
       <c r="L19" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1853,8 +2291,11 @@
       <c r="L20" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>193</v>
       </c>
@@ -1881,8 +2322,11 @@
       <c r="L21" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>192</v>
       </c>
@@ -1909,8 +2353,11 @@
       <c r="L22" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>191</v>
       </c>
@@ -1937,8 +2384,11 @@
       <c r="L23" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1967,8 +2417,11 @@
       <c r="L24" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1997,8 +2450,11 @@
       <c r="L25" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>190</v>
       </c>
@@ -2025,8 +2481,11 @@
       <c r="L26" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2512,11 @@
       <c r="L27" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2081,8 +2543,11 @@
       <c r="L28" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2109,8 +2574,11 @@
       <c r="L29" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -2137,8 +2605,11 @@
       <c r="L30" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2167,8 +2638,11 @@
       <c r="L31" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>188</v>
       </c>
@@ -2197,8 +2671,11 @@
       <c r="L32" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>187</v>
       </c>
@@ -2227,8 +2704,11 @@
       <c r="L33" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>199</v>
       </c>
@@ -2259,8 +2739,11 @@
       <c r="L34" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="39" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2291,8 +2774,11 @@
       <c r="L35" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
@@ -2321,8 +2807,11 @@
       <c r="L36" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>203</v>
       </c>
@@ -2353,8 +2842,11 @@
       <c r="L37" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2381,8 +2873,11 @@
       <c r="L38" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -2411,8 +2906,11 @@
       <c r="L39" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -2441,8 +2939,11 @@
       <c r="L40" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2471,9 +2972,12 @@
       <c r="L41" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="M41" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2501,8 +3005,11 @@
       <c r="L42" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>205</v>
       </c>
@@ -2530,7 +3037,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -2563,8 +3070,11 @@
       <c r="L44" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -2591,8 +3101,11 @@
       <c r="L45" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -2619,8 +3132,11 @@
       <c r="L46" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -2647,8 +3163,11 @@
       <c r="L47" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -2681,8 +3200,11 @@
       <c r="L48" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2711,8 +3233,11 @@
       <c r="L49" s="6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -2741,11 +3266,13 @@
       <c r="L50" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -2774,8 +3301,11 @@
       <c r="L51" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>211</v>
       </c>
@@ -2804,8 +3334,11 @@
       <c r="L52" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -2834,6 +3367,9 @@
       <c r="L53" s="6" t="s">
         <v>207</v>
       </c>
+      <c r="M53" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -2864,8 +3400,11 @@
       <c r="L54" s="6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>212</v>
       </c>
@@ -2894,8 +3433,11 @@
       <c r="L55" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
@@ -2930,8 +3472,11 @@
       <c r="L56" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
@@ -2969,7 +3514,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
@@ -2996,8 +3541,11 @@
       <c r="L58" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M58" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3028,8 +3576,11 @@
       <c r="L59" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M59" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3058,8 +3609,11 @@
       <c r="L60" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M60" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>217</v>
       </c>
@@ -3092,8 +3646,11 @@
       <c r="L61" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M61" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -3124,8 +3681,11 @@
       <c r="L62" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M62" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -3162,8 +3722,11 @@
       <c r="L63" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M63" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>222</v>
       </c>
@@ -3192,8 +3755,11 @@
       <c r="L64" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M64" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>223</v>
       </c>
@@ -3224,8 +3790,11 @@
       <c r="L65" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M65" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -3258,8 +3827,11 @@
       <c r="L66" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M66" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -3286,8 +3858,11 @@
       <c r="L67" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M67" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -3316,8 +3891,11 @@
       <c r="L68" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M68" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -3344,8 +3922,11 @@
       <c r="L69" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M69" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -3372,8 +3953,11 @@
       <c r="L70" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="39" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M70" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -3400,8 +3984,11 @@
       <c r="L71" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M71" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -3430,8 +4017,11 @@
       <c r="L72" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M72" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>225</v>
       </c>
@@ -3462,8 +4052,11 @@
       <c r="L73" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M73" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>227</v>
       </c>
@@ -3496,8 +4089,11 @@
       <c r="L74" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M74" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>228</v>
       </c>
@@ -3528,8 +4124,11 @@
       <c r="L75" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -3560,8 +4159,11 @@
       <c r="L76" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -3598,8 +4200,11 @@
       <c r="L77" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M77" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -3632,8 +4237,11 @@
       <c r="L78" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M78" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -3666,8 +4274,11 @@
       <c r="L79" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M79" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -3698,8 +4309,11 @@
       <c r="L80" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>262</v>
       </c>
@@ -3732,8 +4346,11 @@
       <c r="L81" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M81" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -3770,8 +4387,11 @@
       <c r="L82" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
@@ -3800,8 +4420,11 @@
       <c r="L83" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>267</v>
       </c>
@@ -3832,8 +4455,11 @@
       <c r="L84" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>62</v>
       </c>
@@ -3868,8 +4494,11 @@
       <c r="L85" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M85" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>235</v>
       </c>
@@ -3902,8 +4531,11 @@
       <c r="L86" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M86" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>260</v>
       </c>
@@ -3938,8 +4570,11 @@
       <c r="L87" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M87" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -3972,8 +4607,11 @@
       <c r="L88" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M88" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -4002,8 +4640,11 @@
       <c r="L89" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M89" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -4038,8 +4679,11 @@
       <c r="L90" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="39" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M90" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -4068,8 +4712,11 @@
       <c r="L91" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M91" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -4096,8 +4743,11 @@
       <c r="L92" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M92" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -4124,8 +4774,11 @@
         <v>264</v>
       </c>
       <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M93" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -4154,8 +4807,11 @@
       <c r="L94" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -4184,8 +4840,11 @@
       <c r="L95" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>238</v>
       </c>
@@ -4216,8 +4875,11 @@
       <c r="L96" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>102</v>
       </c>
@@ -4244,8 +4906,11 @@
       <c r="L97" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M97" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>91</v>
       </c>
@@ -4272,8 +4937,11 @@
       <c r="L98" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -4298,8 +4966,11 @@
         <v>265</v>
       </c>
       <c r="L99" s="6"/>
-    </row>
-    <row r="100" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
@@ -4326,8 +4997,11 @@
       <c r="L100" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
@@ -4354,8 +5028,11 @@
       <c r="L101" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
@@ -4382,8 +5059,11 @@
       <c r="L102" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
@@ -4412,8 +5092,11 @@
       <c r="L103" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="39" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M103" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>40</v>
       </c>
@@ -4444,8 +5127,11 @@
       <c r="L104" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
@@ -4476,8 +5162,11 @@
       <c r="L105" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>68</v>
       </c>
@@ -4514,8 +5203,11 @@
       <c r="L106" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>103</v>
       </c>
@@ -4542,8 +5234,11 @@
       <c r="L107" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
@@ -4570,8 +5265,11 @@
       <c r="L108" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>106</v>
       </c>
@@ -4599,7 +5297,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>55</v>
       </c>
@@ -4632,8 +5330,11 @@
       <c r="L110" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -4662,8 +5363,11 @@
       <c r="L111" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>68</v>
       </c>
@@ -4700,8 +5404,11 @@
       <c r="L112" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -4730,8 +5437,11 @@
       <c r="L113" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -4760,8 +5470,11 @@
       <c r="L114" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -4790,8 +5503,11 @@
       <c r="L115" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>245</v>
       </c>
@@ -4820,8 +5536,11 @@
       <c r="L116" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>254</v>
       </c>
@@ -4852,8 +5571,11 @@
       <c r="L117" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>114</v>
       </c>
@@ -4882,8 +5604,11 @@
       <c r="L118" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M118" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>227</v>
       </c>
@@ -4916,8 +5641,11 @@
       <c r="L119" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M119" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>79</v>
       </c>
@@ -4948,8 +5676,11 @@
       <c r="L120" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>84</v>
       </c>
@@ -4984,8 +5715,11 @@
       <c r="L121" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>115</v>
       </c>
@@ -5014,8 +5748,11 @@
       <c r="L122" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M122" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>248</v>
       </c>
@@ -5045,7 +5782,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>249</v>
       </c>
@@ -5074,8 +5811,11 @@
       <c r="L124" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M124" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>76</v>
       </c>
@@ -5112,8 +5852,11 @@
       <c r="L125" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M125" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -5142,8 +5885,11 @@
       <c r="L126" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M126" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>117</v>
       </c>
@@ -5172,8 +5918,11 @@
       <c r="L127" s="6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M127" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>203</v>
       </c>
@@ -5204,8 +5953,11 @@
       <c r="L128" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M128" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>251</v>
       </c>
@@ -5234,8 +5986,11 @@
       <c r="L129" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="M129" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>8</v>
       </c>
@@ -5266,8 +6021,11 @@
       <c r="L130" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M130" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>267</v>
       </c>
@@ -5298,8 +6056,11 @@
       <c r="L131" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M131" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>62</v>
       </c>
@@ -5334,8 +6095,11 @@
       <c r="L132" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M132" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>252</v>
       </c>
@@ -5364,8 +6128,11 @@
       <c r="L133" s="6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M133" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>118</v>
       </c>
@@ -5393,7 +6160,7 @@
       </c>
       <c r="L134" s="6"/>
     </row>
-    <row r="135" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>254</v>
       </c>
@@ -5422,8 +6189,11 @@
       <c r="L135" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M135" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>217</v>
       </c>
@@ -5454,8 +6224,11 @@
       <c r="L136" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M136" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>55</v>
       </c>
@@ -5486,8 +6259,11 @@
       <c r="L137" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M137" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>68</v>
       </c>
@@ -5522,8 +6298,11 @@
       <c r="L138" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M138" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>223</v>
       </c>
@@ -5552,8 +6331,11 @@
       <c r="L139" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M139" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>227</v>
       </c>
@@ -5584,8 +6366,11 @@
       <c r="L140" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M140" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>76</v>
       </c>
@@ -5620,8 +6405,11 @@
       <c r="L141" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M141" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>77</v>
       </c>
@@ -5652,8 +6440,11 @@
       <c r="L142" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M142" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>84</v>
       </c>
@@ -5686,8 +6477,11 @@
       <c r="L143" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M143" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>256</v>
       </c>
@@ -5718,8 +6512,11 @@
       <c r="L144" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M144" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>82</v>
       </c>
@@ -5750,8 +6547,11 @@
       <c r="L145" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M145" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>121</v>
       </c>
@@ -5778,8 +6578,11 @@
       <c r="L146" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M146" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>122</v>
       </c>
@@ -5805,7 +6608,7 @@
       </c>
       <c r="L147" s="6"/>
     </row>
-    <row r="148" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>123</v>
       </c>
@@ -5831,7 +6634,7 @@
       </c>
       <c r="L148" s="6"/>
     </row>
-    <row r="149" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>124</v>
       </c>
@@ -5857,7 +6660,7 @@
       </c>
       <c r="L149" s="6"/>
     </row>
-    <row r="150" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>127</v>
       </c>
@@ -5888,8 +6691,11 @@
       <c r="L150" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M150" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>80</v>
       </c>
@@ -5926,8 +6732,11 @@
       <c r="L151" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M151" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>262</v>
       </c>
@@ -5960,8 +6769,11 @@
       <c r="L152" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M152" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>258</v>
       </c>
@@ -5994,8 +6806,11 @@
       <c r="L153" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M153" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>260</v>
       </c>
@@ -6030,8 +6845,11 @@
       <c r="L154" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M154" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>128</v>
       </c>
@@ -6058,8 +6876,11 @@
       <c r="L155" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M155" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>129</v>
       </c>
@@ -6086,8 +6907,11 @@
       <c r="L156" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M156" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>130</v>
       </c>
@@ -6113,7 +6937,7 @@
       </c>
       <c r="L157" s="6"/>
     </row>
-    <row r="158" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>131</v>
       </c>
@@ -6139,7 +6963,7 @@
       </c>
       <c r="L158" s="6"/>
     </row>
-    <row r="159" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>67</v>
       </c>
@@ -6170,8 +6994,11 @@
       <c r="L159" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M159" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>217</v>
       </c>
@@ -6204,8 +7031,11 @@
       <c r="L160" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M160" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>68</v>
       </c>
@@ -6242,8 +7072,11 @@
       <c r="L161" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M161" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>225</v>
       </c>
@@ -6274,8 +7107,11 @@
       <c r="L162" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M162" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>77</v>
       </c>
@@ -6308,8 +7144,11 @@
       <c r="L163" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M163" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>78</v>
       </c>
@@ -6342,8 +7181,11 @@
       <c r="L164" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M164" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>127</v>
       </c>
@@ -6374,8 +7216,11 @@
       <c r="L165" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M165" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>258</v>
       </c>
@@ -6406,8 +7251,11 @@
       <c r="L166" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M166" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>133</v>
       </c>
@@ -6436,8 +7284,11 @@
       <c r="L167" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M167" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>80</v>
       </c>
@@ -6474,8 +7325,11 @@
       <c r="L168" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M168" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>262</v>
       </c>
@@ -6508,8 +7362,11 @@
       <c r="L169" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M169" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>260</v>
       </c>
@@ -6544,8 +7401,11 @@
       <c r="L170" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M170" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>82</v>
       </c>
@@ -6578,8 +7438,11 @@
       <c r="L171" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M171" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>134</v>
       </c>
@@ -6606,8 +7469,11 @@
       <c r="L172" s="6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M172" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>135</v>
       </c>
@@ -6632,8 +7498,11 @@
         <v>265</v>
       </c>
       <c r="L173" s="6"/>
-    </row>
-    <row r="174" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M173" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>136</v>
       </c>
@@ -6659,7 +7528,7 @@
       </c>
       <c r="L174" s="6"/>
     </row>
-    <row r="175" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>137</v>
       </c>
@@ -6687,7 +7556,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>138</v>
       </c>
@@ -6713,7 +7582,7 @@
       </c>
       <c r="L176" s="6"/>
     </row>
-    <row r="177" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>140</v>
       </c>
@@ -6740,8 +7609,11 @@
       <c r="L177" s="6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M177" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>141</v>
       </c>
@@ -6766,8 +7638,11 @@
         <v>265</v>
       </c>
       <c r="L178" s="6"/>
-    </row>
-    <row r="179" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M178" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>143</v>
       </c>
@@ -6796,8 +7671,11 @@
       <c r="L179" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M179" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>80</v>
       </c>
@@ -6834,8 +7712,11 @@
       <c r="L180" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M180" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>76</v>
       </c>
@@ -6872,8 +7753,11 @@
       <c r="L181" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M181" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>260</v>
       </c>
@@ -6908,8 +7792,11 @@
       <c r="L182" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M182" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>145</v>
       </c>
@@ -6937,7 +7824,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>146</v>
       </c>
@@ -6963,7 +7850,7 @@
       </c>
       <c r="L184" s="6"/>
     </row>
-    <row r="185" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>215</v>
       </c>
@@ -6992,8 +7879,11 @@
       <c r="L185" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M185" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>48</v>
       </c>
@@ -7024,8 +7914,11 @@
       <c r="L186" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M186" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>80</v>
       </c>
@@ -7060,8 +7953,11 @@
       <c r="L187" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M187" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>148</v>
       </c>
@@ -7094,8 +7990,11 @@
       <c r="L188" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M188" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>75</v>
       </c>
@@ -7124,8 +8023,11 @@
       <c r="L189" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M189" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>258</v>
       </c>
@@ -7156,8 +8058,11 @@
       <c r="L190" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M190" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>149</v>
       </c>
@@ -7184,8 +8089,11 @@
       <c r="L191" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M191" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>150</v>
       </c>
@@ -7211,7 +8119,7 @@
       </c>
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>151</v>
       </c>
@@ -7238,8 +8146,11 @@
       <c r="L193" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M193" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>152</v>
       </c>
@@ -7266,8 +8177,11 @@
       <c r="L194" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M194" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>84</v>
       </c>
@@ -7302,8 +8216,11 @@
       <c r="L195" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M195" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>154</v>
       </c>
@@ -7332,8 +8249,11 @@
       <c r="L196" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M196" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>78</v>
       </c>
@@ -7366,16 +8286,12 @@
       <c r="L197" s="6" t="s">
         <v>229</v>
       </c>
+      <c r="M197" s="6" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L197" xr:uid="{F1C4AD9B-0CAF-BF46-85E9-865C6C0297F3}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="BUJA"/>
-        <filter val="MLAVA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A197" xr:uid="{C47C4E46-7743-124E-ACA5-96FF2C9C4A18}"/>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -7388,8 +8304,27 @@
     <hyperlink ref="A107" r:id="rId5" xr:uid="{654A6851-F674-6240-8151-F49C2117FF24}"/>
     <hyperlink ref="A196" r:id="rId6" xr:uid="{62044CDC-7647-F045-BFFA-EECDEB42A06C}"/>
     <hyperlink ref="A179" r:id="rId7" xr:uid="{923E27AE-6683-2742-98C2-E2DD6509EAD3}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{0F9B28A7-2B81-CF4B-97C6-741945CCE4EA}"/>
+    <hyperlink ref="M118" r:id="rId9" xr:uid="{BD39FC8A-9402-EC49-AD40-706B287EFA65}"/>
+    <hyperlink ref="M116" r:id="rId10" xr:uid="{BE0CA832-A616-7840-868F-7BBB3A2C3DD0}"/>
+    <hyperlink ref="M63" r:id="rId11" xr:uid="{B9C8C0CA-E58A-FA4F-B54B-E9DD652E5EB0}"/>
+    <hyperlink ref="M58" r:id="rId12" xr:uid="{6F9B0BE6-AA29-534D-9C32-6CCCD6EB7D96}"/>
+    <hyperlink ref="M114" r:id="rId13" xr:uid="{5D58EED1-7891-E148-BE70-6287C03F5367}"/>
+    <hyperlink ref="M64" r:id="rId14" xr:uid="{C2790773-3D24-4D41-AFD7-0D00662A4984}"/>
+    <hyperlink ref="M60" r:id="rId15" xr:uid="{4B0068F7-1A3B-A446-8431-04D08306077F}"/>
+    <hyperlink ref="M5" r:id="rId16" xr:uid="{ECB906C8-CE9D-8148-918C-6784E368A3E6}"/>
+    <hyperlink ref="M69" r:id="rId17" xr:uid="{B652F525-52BD-F143-9E9A-01A5F048B7E9}"/>
+    <hyperlink ref="M115" r:id="rId18" xr:uid="{5EF740A7-7377-F647-AA37-9F90913B8DC8}"/>
+    <hyperlink ref="M40" r:id="rId19" xr:uid="{8F5216C1-B9C0-DF40-8C11-ABF0882803BB}"/>
+    <hyperlink ref="M31" r:id="rId20" xr:uid="{B58502A4-2594-CD42-96A9-90C774A346DD}"/>
+    <hyperlink ref="M42" r:id="rId21" xr:uid="{1EC5F92A-72A0-BC42-B27C-E7DF75249782}"/>
+    <hyperlink ref="M15" r:id="rId22" xr:uid="{5160273A-8DE6-6949-BA4E-2A35B704C7F7}"/>
+    <hyperlink ref="A11" r:id="rId23" xr:uid="{486CCDA5-7347-C547-901F-7FE124EAE9BD}"/>
+    <hyperlink ref="A10" r:id="rId24" xr:uid="{825D4551-3DD5-8143-A64D-0C89E8EBAA29}"/>
+    <hyperlink ref="M10" r:id="rId25" xr:uid="{CA7296CA-E8FE-FA4D-ACD5-DEB3DFE4A1D6}"/>
+    <hyperlink ref="M2" r:id="rId26" xr:uid="{293059CE-8B4A-DD42-8D0B-62747A7778E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB57C808-0541-DC41-AE6C-4CD6C95E5DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4918110-9E12-3C4E-B37F-3283E346094F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$197</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="M17" sqref="M17:M192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8291,7 +8291,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A197" xr:uid="{C47C4E46-7743-124E-ACA5-96FF2C9C4A18}"/>
+  <autoFilter ref="M1:M197" xr:uid="{1BEBB826-F3C5-1F40-8647-A604D25B859C}"/>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4918110-9E12-3C4E-B37F-3283E346094F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54985FE5-B569-AD43-BB24-40C417EFA111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$197</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="408">
   <si>
     <t>Primarni jezik</t>
   </si>
@@ -1250,6 +1250,12 @@
   </si>
   <si>
     <t>http://www.niumiic.rs/contacts/</t>
+  </si>
+  <si>
+    <t>BEOGRAD</t>
+  </si>
+  <si>
+    <t>TORAK</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1644,7 @@
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M192"/>
+      <selection activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2041,7 +2047,9 @@
       <c r="K12" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>296</v>
       </c>
@@ -2163,7 +2171,9 @@
       <c r="K16" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="M16" s="6" t="s">
         <v>299</v>
       </c>
@@ -4773,7 +4783,9 @@
       <c r="K93" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L93" s="6"/>
+      <c r="L93" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="M93" s="6" t="s">
         <v>360</v>
       </c>
@@ -4965,7 +4977,9 @@
       <c r="K99" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L99" s="6"/>
+      <c r="L99" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="M99" s="6" t="s">
         <v>291</v>
       </c>
@@ -6158,7 +6172,9 @@
       <c r="K134" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L134" s="6"/>
+      <c r="L134" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
@@ -6606,7 +6622,9 @@
       <c r="K147" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L147" s="6"/>
+      <c r="L147" s="6" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="148" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -6632,7 +6650,9 @@
       <c r="K148" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L148" s="6"/>
+      <c r="L148" s="6" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="149" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
@@ -6658,7 +6678,9 @@
       <c r="K149" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L149" s="6"/>
+      <c r="L149" s="6" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
@@ -6935,7 +6957,9 @@
       <c r="K157" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L157" s="6"/>
+      <c r="L157" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="158" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
@@ -6961,7 +6985,9 @@
       <c r="K158" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L158" s="6"/>
+      <c r="L158" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
@@ -7497,7 +7523,9 @@
       <c r="K173" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L173" s="6"/>
+      <c r="L173" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="M173" s="6" t="s">
         <v>289</v>
       </c>
@@ -7526,7 +7554,9 @@
       <c r="K174" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L174" s="6"/>
+      <c r="L174" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="175" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
@@ -7580,7 +7610,9 @@
       <c r="K176" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L176" s="6"/>
+      <c r="L176" s="6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
@@ -7637,7 +7669,9 @@
       <c r="K178" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L178" s="6"/>
+      <c r="L178" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="M178" s="6" t="s">
         <v>300</v>
       </c>
@@ -7848,7 +7882,9 @@
       <c r="K184" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L184" s="6"/>
+      <c r="L184" s="6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
@@ -8117,7 +8153,9 @@
       <c r="K192" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L192" s="6"/>
+      <c r="L192" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
@@ -8291,7 +8329,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M197" xr:uid="{1BEBB826-F3C5-1F40-8647-A604D25B859C}"/>
+  <autoFilter ref="L1:L197" xr:uid="{81F08032-5897-364A-9048-70A7B8E5C09C}"/>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54985FE5-B569-AD43-BB24-40C417EFA111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EEAB2-34DF-C149-8E08-476F6D75AA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$197</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="409">
   <si>
     <t>Primarni jezik</t>
   </si>
@@ -1256,6 +1256,9 @@
   </si>
   <si>
     <t>TORAK</t>
+  </si>
+  <si>
+    <t>https://tixwitchy.github.io/Minority-media/index.html</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1647,7 @@
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L198" sqref="L198"/>
+      <selection activeCell="M192" sqref="M192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2205,6 +2208,9 @@
       <c r="L17" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="M17" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -3046,6 +3052,9 @@
       <c r="L43" s="6" t="s">
         <v>186</v>
       </c>
+      <c r="M43" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -3523,6 +3532,9 @@
       <c r="L57" s="5" t="s">
         <v>214</v>
       </c>
+      <c r="M57" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -5310,6 +5322,9 @@
       <c r="L109" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="M109" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
@@ -5795,6 +5810,9 @@
       <c r="L123" s="6" t="s">
         <v>247</v>
       </c>
+      <c r="M123" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="124" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
@@ -6174,6 +6192,9 @@
       </c>
       <c r="L134" s="6" t="s">
         <v>406</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
@@ -6625,6 +6646,9 @@
       <c r="L147" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="M147" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="148" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -6653,6 +6677,9 @@
       <c r="L148" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="M148" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="149" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
@@ -6681,6 +6708,9 @@
       <c r="L149" s="6" t="s">
         <v>407</v>
       </c>
+      <c r="M149" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
@@ -6960,6 +6990,9 @@
       <c r="L157" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="M157" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="158" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
@@ -6988,6 +7021,9 @@
       <c r="L158" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="M158" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
@@ -7557,6 +7593,9 @@
       <c r="L174" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="M174" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="175" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
@@ -7585,6 +7624,9 @@
       <c r="L175" s="6" t="s">
         <v>274</v>
       </c>
+      <c r="M175" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="176" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
@@ -7613,6 +7655,9 @@
       <c r="L176" s="6" t="s">
         <v>274</v>
       </c>
+      <c r="M176" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
@@ -7857,6 +7902,9 @@
       <c r="L183" s="6" t="s">
         <v>214</v>
       </c>
+      <c r="M183" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="184" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
@@ -7885,6 +7933,9 @@
       <c r="L184" s="6" t="s">
         <v>274</v>
       </c>
+      <c r="M184" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
@@ -8156,6 +8207,9 @@
       <c r="L192" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="M192" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
@@ -8329,7 +8383,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L197" xr:uid="{81F08032-5897-364A-9048-70A7B8E5C09C}"/>
+  <autoFilter ref="M1:M197" xr:uid="{66FDA063-98B3-594E-B610-AF85983470E9}"/>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EEAB2-34DF-C149-8E08-476F6D75AA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C717478-BCE5-E64E-896D-C05826C5558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
     <t>TORAK</t>
   </si>
   <si>
-    <t>https://tixwitchy.github.io/Minority-media/index.html</t>
+    <t>https://tixwitchy.github.io/Minority-media/Nema-online-informacija-o-mediju.html</t>
   </si>
 </sst>
 </file>
@@ -1644,6 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1699,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>197</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>194</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>193</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>192</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>191</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>190</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>188</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>187</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>199</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>203</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -3291,7 +3292,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>211</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>212</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>217</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>222</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>223</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>225</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>227</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>228</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>262</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>267</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>62</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>235</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>260</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>238</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>102</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>91</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>40</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>68</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>103</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>55</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>68</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>245</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>254</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>114</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>227</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>79</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>84</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>115</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>249</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>76</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>117</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>203</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>251</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>8</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>267</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>62</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>252</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>254</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>217</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>55</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>68</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>223</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>227</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>76</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>77</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>84</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>256</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>82</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>121</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>127</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>80</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>262</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>258</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>260</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>128</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>129</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>67</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>217</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>68</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>225</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>77</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>78</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>127</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>258</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>133</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>80</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>262</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>260</v>
       </c>
@@ -7467,7 +7468,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>82</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>134</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>135</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>140</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>141</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>143</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>80</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>76</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>260</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>215</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>48</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>80</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>148</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>75</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>258</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>149</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>151</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>152</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>84</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>154</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>78</v>
       </c>
@@ -8383,7 +8384,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M197" xr:uid="{66FDA063-98B3-594E-B610-AF85983470E9}"/>
+  <autoFilter ref="M1:M197" xr:uid="{66FDA063-98B3-594E-B610-AF85983470E9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="https://tixwitchy.github.io/Minority-media/index.html"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C717478-BCE5-E64E-896D-C05826C5558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F52CC0BB-69B7-2044-B964-1A6BD7774F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25180" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="416">
   <si>
     <t>Primarni jezik</t>
   </si>
@@ -1259,6 +1259,27 @@
   </si>
   <si>
     <t>https://tixwitchy.github.io/Minority-media/Nema-online-informacija-o-mediju.html</t>
+  </si>
+  <si>
+    <t>Titulli.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne </t>
+  </si>
+  <si>
+    <t>Preshevajone.com</t>
+  </si>
+  <si>
+    <t>https://www.preshevajone.com/</t>
+  </si>
+  <si>
+    <t>http://titulli.com/</t>
+  </si>
+  <si>
+    <t>Bujanoci.net</t>
+  </si>
+  <si>
+    <t>https://bujanoci.net/</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1333,12 +1354,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1363,6 +1417,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1644,11 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M192" sqref="M192"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1760,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1793,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1765,7 +1826,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
@@ -1796,7 +1857,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>197</v>
       </c>
@@ -1827,7 +1888,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1923,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1956,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1989,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
@@ -1963,7 +2024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +2055,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -2027,7 +2088,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2058,7 +2119,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2150,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -2120,7 +2181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2212,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2274,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2307,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>194</v>
       </c>
@@ -2279,7 +2340,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2312,7 +2373,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>193</v>
       </c>
@@ -2343,7 +2404,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>192</v>
       </c>
@@ -2374,7 +2435,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>191</v>
       </c>
@@ -2405,7 +2466,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2499,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2532,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>190</v>
       </c>
@@ -2502,7 +2563,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2594,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2625,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2595,7 +2656,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -2626,7 +2687,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2659,7 +2720,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>188</v>
       </c>
@@ -2692,7 +2753,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>187</v>
       </c>
@@ -2725,7 +2786,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>199</v>
       </c>
@@ -2760,7 +2821,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2795,7 +2856,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
@@ -2828,7 +2889,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>203</v>
       </c>
@@ -2863,7 +2924,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2894,7 +2955,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -2927,7 +2988,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -2960,7 +3021,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +3054,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3118,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -3094,7 +3155,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -3125,7 +3186,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -3156,7 +3217,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -3187,7 +3248,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -3224,7 +3285,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -3257,7 +3318,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -3292,7 +3353,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -3325,7 +3386,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>211</v>
       </c>
@@ -3358,7 +3419,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -3391,7 +3452,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
@@ -3424,7 +3485,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>212</v>
       </c>
@@ -3457,7 +3518,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
@@ -3537,7 +3598,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
@@ -3568,7 +3629,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3603,7 +3664,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3636,7 +3697,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>217</v>
       </c>
@@ -3673,7 +3734,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -3708,7 +3769,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -3749,7 +3810,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>222</v>
       </c>
@@ -3782,7 +3843,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>223</v>
       </c>
@@ -3817,7 +3878,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -3854,7 +3915,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -3885,7 +3946,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -3918,7 +3979,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -3949,7 +4010,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -3980,7 +4041,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -4011,7 +4072,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -4044,7 +4105,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>225</v>
       </c>
@@ -4079,7 +4140,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>227</v>
       </c>
@@ -4116,7 +4177,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>228</v>
       </c>
@@ -4151,7 +4212,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -4186,7 +4247,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -4227,7 +4288,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -4264,7 +4325,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -4301,7 +4362,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -4336,7 +4397,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>262</v>
       </c>
@@ -4373,7 +4434,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -4414,7 +4475,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
@@ -4447,7 +4508,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>267</v>
       </c>
@@ -4482,7 +4543,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>62</v>
       </c>
@@ -4521,7 +4582,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>235</v>
       </c>
@@ -4558,7 +4619,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>260</v>
       </c>
@@ -4597,7 +4658,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -4634,7 +4695,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -4667,7 +4728,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -4706,7 +4767,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -4739,7 +4800,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -4770,7 +4831,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -4803,7 +4864,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -4836,7 +4897,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -4869,7 +4930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>238</v>
       </c>
@@ -4904,7 +4965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>102</v>
       </c>
@@ -4935,7 +4996,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>91</v>
       </c>
@@ -4966,7 +5027,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -4997,7 +5058,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
@@ -5028,7 +5089,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
@@ -5059,7 +5120,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
@@ -5090,7 +5151,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
@@ -5123,7 +5184,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>40</v>
       </c>
@@ -5158,7 +5219,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
@@ -5193,7 +5254,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>68</v>
       </c>
@@ -5234,7 +5295,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>103</v>
       </c>
@@ -5265,7 +5326,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
@@ -5327,7 +5388,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>55</v>
       </c>
@@ -5364,7 +5425,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -5397,7 +5458,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>68</v>
       </c>
@@ -5438,7 +5499,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -5471,7 +5532,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -5504,7 +5565,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -5537,7 +5598,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>245</v>
       </c>
@@ -5570,7 +5631,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>254</v>
       </c>
@@ -5605,7 +5666,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>114</v>
       </c>
@@ -5638,7 +5699,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>227</v>
       </c>
@@ -5675,7 +5736,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>79</v>
       </c>
@@ -5710,7 +5771,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>84</v>
       </c>
@@ -5749,7 +5810,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>115</v>
       </c>
@@ -5815,7 +5876,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>249</v>
       </c>
@@ -5848,7 +5909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>76</v>
       </c>
@@ -5889,7 +5950,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -5922,7 +5983,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>117</v>
       </c>
@@ -5955,7 +6016,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>203</v>
       </c>
@@ -5990,7 +6051,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>251</v>
       </c>
@@ -6023,7 +6084,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>8</v>
       </c>
@@ -6058,7 +6119,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>267</v>
       </c>
@@ -6093,7 +6154,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>62</v>
       </c>
@@ -6132,7 +6193,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>252</v>
       </c>
@@ -6198,7 +6259,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>254</v>
       </c>
@@ -6231,7 +6292,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>217</v>
       </c>
@@ -6266,7 +6327,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>55</v>
       </c>
@@ -6301,7 +6362,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>68</v>
       </c>
@@ -6340,7 +6401,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>223</v>
       </c>
@@ -6373,7 +6434,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>227</v>
       </c>
@@ -6408,7 +6469,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>76</v>
       </c>
@@ -6447,7 +6508,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>77</v>
       </c>
@@ -6482,7 +6543,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>84</v>
       </c>
@@ -6519,7 +6580,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>256</v>
       </c>
@@ -6554,7 +6615,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>82</v>
       </c>
@@ -6589,7 +6650,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>121</v>
       </c>
@@ -6713,7 +6774,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>127</v>
       </c>
@@ -6748,7 +6809,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>80</v>
       </c>
@@ -6789,7 +6850,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>262</v>
       </c>
@@ -6826,7 +6887,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>258</v>
       </c>
@@ -6863,7 +6924,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>260</v>
       </c>
@@ -6902,7 +6963,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>128</v>
       </c>
@@ -6933,7 +6994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>129</v>
       </c>
@@ -7026,7 +7087,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>67</v>
       </c>
@@ -7061,7 +7122,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>217</v>
       </c>
@@ -7098,7 +7159,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>68</v>
       </c>
@@ -7139,7 +7200,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>225</v>
       </c>
@@ -7174,7 +7235,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>77</v>
       </c>
@@ -7211,7 +7272,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>78</v>
       </c>
@@ -7248,7 +7309,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>127</v>
       </c>
@@ -7283,7 +7344,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>258</v>
       </c>
@@ -7318,7 +7379,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>133</v>
       </c>
@@ -7351,7 +7412,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>80</v>
       </c>
@@ -7392,7 +7453,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>262</v>
       </c>
@@ -7429,7 +7490,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>260</v>
       </c>
@@ -7468,7 +7529,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>82</v>
       </c>
@@ -7505,7 +7566,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>134</v>
       </c>
@@ -7536,7 +7597,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>135</v>
       </c>
@@ -7660,7 +7721,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>140</v>
       </c>
@@ -7691,7 +7752,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>141</v>
       </c>
@@ -7722,7 +7783,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>143</v>
       </c>
@@ -7755,7 +7816,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>80</v>
       </c>
@@ -7796,7 +7857,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>76</v>
       </c>
@@ -7837,7 +7898,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>260</v>
       </c>
@@ -7938,7 +7999,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>215</v>
       </c>
@@ -7971,7 +8032,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>48</v>
       </c>
@@ -8006,7 +8067,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>80</v>
       </c>
@@ -8045,7 +8106,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>148</v>
       </c>
@@ -8082,7 +8143,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>75</v>
       </c>
@@ -8115,7 +8176,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>258</v>
       </c>
@@ -8150,7 +8211,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>149</v>
       </c>
@@ -8212,7 +8273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>151</v>
       </c>
@@ -8243,7 +8304,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>152</v>
       </c>
@@ -8274,7 +8335,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>84</v>
       </c>
@@ -8313,7 +8374,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>154</v>
       </c>
@@ -8346,7 +8407,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>78</v>
       </c>
@@ -8383,45 +8444,137 @@
         <v>335</v>
       </c>
     </row>
+    <row r="198" spans="1:13" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K198" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L198" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K199" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L199" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M199" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A200" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K200" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L200" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="M200" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M201" s="11"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M202" s="11"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M203" s="11"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M204" s="11"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M205" s="11"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M206" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="M1:M197" xr:uid="{66FDA063-98B3-594E-B610-AF85983470E9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="https://tixwitchy.github.io/Minority-media/index.html"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D41" location="_ftn2" display="_ftn2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A97" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A42" r:id="rId1" xr:uid="{CE2DE2BA-B256-D94A-BBC0-37208214611F}"/>
-    <hyperlink ref="A30" r:id="rId2" xr:uid="{785C09DC-F162-9742-AC68-D28E741EBEEC}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{5087C776-E894-8F48-B2E3-BCF85745FEE9}"/>
-    <hyperlink ref="A194" r:id="rId4" xr:uid="{6FD3CA72-9659-A44A-8988-FDA6899E95A6}"/>
-    <hyperlink ref="A107" r:id="rId5" xr:uid="{654A6851-F674-6240-8151-F49C2117FF24}"/>
-    <hyperlink ref="A196" r:id="rId6" xr:uid="{62044CDC-7647-F045-BFFA-EECDEB42A06C}"/>
-    <hyperlink ref="A179" r:id="rId7" xr:uid="{923E27AE-6683-2742-98C2-E2DD6509EAD3}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{0F9B28A7-2B81-CF4B-97C6-741945CCE4EA}"/>
-    <hyperlink ref="M118" r:id="rId9" xr:uid="{BD39FC8A-9402-EC49-AD40-706B287EFA65}"/>
-    <hyperlink ref="M116" r:id="rId10" xr:uid="{BE0CA832-A616-7840-868F-7BBB3A2C3DD0}"/>
-    <hyperlink ref="M63" r:id="rId11" xr:uid="{B9C8C0CA-E58A-FA4F-B54B-E9DD652E5EB0}"/>
-    <hyperlink ref="M58" r:id="rId12" xr:uid="{6F9B0BE6-AA29-534D-9C32-6CCCD6EB7D96}"/>
-    <hyperlink ref="M114" r:id="rId13" xr:uid="{5D58EED1-7891-E148-BE70-6287C03F5367}"/>
-    <hyperlink ref="M64" r:id="rId14" xr:uid="{C2790773-3D24-4D41-AFD7-0D00662A4984}"/>
-    <hyperlink ref="M60" r:id="rId15" xr:uid="{4B0068F7-1A3B-A446-8431-04D08306077F}"/>
-    <hyperlink ref="M5" r:id="rId16" xr:uid="{ECB906C8-CE9D-8148-918C-6784E368A3E6}"/>
-    <hyperlink ref="M69" r:id="rId17" xr:uid="{B652F525-52BD-F143-9E9A-01A5F048B7E9}"/>
-    <hyperlink ref="M115" r:id="rId18" xr:uid="{5EF740A7-7377-F647-AA37-9F90913B8DC8}"/>
-    <hyperlink ref="M40" r:id="rId19" xr:uid="{8F5216C1-B9C0-DF40-8C11-ABF0882803BB}"/>
-    <hyperlink ref="M31" r:id="rId20" xr:uid="{B58502A4-2594-CD42-96A9-90C774A346DD}"/>
-    <hyperlink ref="M42" r:id="rId21" xr:uid="{1EC5F92A-72A0-BC42-B27C-E7DF75249782}"/>
-    <hyperlink ref="M15" r:id="rId22" xr:uid="{5160273A-8DE6-6949-BA4E-2A35B704C7F7}"/>
-    <hyperlink ref="A11" r:id="rId23" xr:uid="{486CCDA5-7347-C547-901F-7FE124EAE9BD}"/>
-    <hyperlink ref="A10" r:id="rId24" xr:uid="{825D4551-3DD5-8143-A64D-0C89E8EBAA29}"/>
-    <hyperlink ref="M10" r:id="rId25" xr:uid="{CA7296CA-E8FE-FA4D-ACD5-DEB3DFE4A1D6}"/>
-    <hyperlink ref="M2" r:id="rId26" xr:uid="{293059CE-8B4A-DD42-8D0B-62747A7778E2}"/>
+    <hyperlink ref="A42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A194" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A107" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A196" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A179" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M118" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M116" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M63" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M58" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M114" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M64" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M60" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M69" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M115" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M2" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F52CC0BB-69B7-2044-B964-1A6BD7774F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2124AFA-5FE8-AA45-9E78-FF79C127E06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25180" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$206</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="415">
   <si>
     <t>Primarni jezik</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>www.glaspress.rs</t>
-  </si>
-  <si>
-    <t>mesečnik</t>
   </si>
   <si>
     <t>Bugarski</t>
@@ -1706,10 +1703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1720,13 +1718,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1735,32 +1733,32 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1784,16 +1782,16 @@
       <c r="I2" s="3"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1817,18 +1815,18 @@
       <c r="I3" s="3"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -1848,18 +1846,18 @@
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -1879,16 +1877,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,22 +1906,22 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1947,16 +1945,16 @@
       <c r="I7" s="3"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1980,18 +1978,18 @@
       <c r="I8" s="3"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
@@ -2009,22 +2007,22 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -2046,16 +2044,16 @@
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -2079,16 +2077,16 @@
       <c r="I11" s="3"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2110,16 +2108,16 @@
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2141,16 +2139,16 @@
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -2172,16 +2170,16 @@
       <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2203,16 +2201,16 @@
       <c r="I15" s="3"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2234,18 +2232,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2265,16 +2263,16 @@
       <c r="I17" s="3"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2298,18 +2296,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>39</v>
@@ -2331,16 +2329,16 @@
       <c r="I19" s="3"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2364,18 +2362,18 @@
       <c r="I20" s="3"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
@@ -2395,18 +2393,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>39</v>
@@ -2426,18 +2424,18 @@
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
@@ -2457,16 +2455,16 @@
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2490,16 +2488,16 @@
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -2523,18 +2521,18 @@
       <c r="I25" s="3"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>39</v>
@@ -2554,16 +2552,16 @@
       <c r="I26" s="3"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2585,16 +2583,16 @@
       <c r="I27" s="3"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2616,16 +2614,16 @@
       <c r="I28" s="3"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2647,16 +2645,16 @@
       <c r="I29" s="3"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -2678,18 +2676,18 @@
       <c r="I30" s="3"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>39</v>
@@ -2711,18 +2709,18 @@
       <c r="I31" s="3"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>39</v>
@@ -2744,21 +2742,21 @@
       <c r="I32" s="3"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -2777,21 +2775,21 @@
       <c r="I33" s="3"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1</v>
@@ -2812,21 +2810,21 @@
       <c r="I34" s="3"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
@@ -2841,27 +2839,27 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>0</v>
@@ -2880,21 +2878,21 @@
       <c r="I36" s="3"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1</v>
@@ -2909,27 +2907,27 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>0</v>
@@ -2946,21 +2944,21 @@
       <c r="I38" s="3"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -2979,21 +2977,21 @@
       <c r="I39" s="3"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
@@ -3012,21 +3010,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
@@ -3045,21 +3043,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>0</v>
@@ -3078,27 +3076,27 @@
       <c r="I42" s="3"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
@@ -3109,21 +3107,21 @@
       <c r="I43" s="3"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
@@ -3138,29 +3136,29 @@
         <v>7</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
@@ -3177,27 +3175,27 @@
       <c r="I45" s="3"/>
       <c r="J45" s="6"/>
       <c r="K45" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3208,21 +3206,21 @@
       <c r="I46" s="3"/>
       <c r="J46" s="6"/>
       <c r="K46" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>0</v>
@@ -3231,7 +3229,7 @@
         <v>24</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3239,21 +3237,21 @@
       <c r="I47" s="3"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1</v>
@@ -3268,29 +3266,29 @@
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
@@ -3309,21 +3307,21 @@
       <c r="I49" s="3"/>
       <c r="J49" s="6"/>
       <c r="K49" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
@@ -3342,23 +3340,23 @@
       <c r="I50" s="3"/>
       <c r="J50" s="8"/>
       <c r="K50" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
@@ -3377,21 +3375,21 @@
       <c r="I51" s="3"/>
       <c r="J51" s="6"/>
       <c r="K51" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
@@ -3410,21 +3408,21 @@
       <c r="I52" s="3"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
@@ -3443,21 +3441,21 @@
       <c r="I53" s="3"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
@@ -3476,21 +3474,21 @@
       <c r="I54" s="3"/>
       <c r="J54" s="6"/>
       <c r="K54" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
@@ -3509,21 +3507,21 @@
       <c r="I55" s="3"/>
       <c r="J55" s="6"/>
       <c r="K55" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
@@ -3538,31 +3536,31 @@
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1</v>
@@ -3577,33 +3575,33 @@
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="K57" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>0</v>
@@ -3620,21 +3618,21 @@
       <c r="I58" s="3"/>
       <c r="J58" s="6"/>
       <c r="K58" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
@@ -3649,27 +3647,27 @@
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="6"/>
       <c r="K59" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1</v>
@@ -3688,21 +3686,21 @@
       <c r="I60" s="3"/>
       <c r="J60" s="6"/>
       <c r="K60" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1</v>
@@ -3717,29 +3715,29 @@
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="6"/>
       <c r="K61" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1</v>
@@ -3754,27 +3752,27 @@
         <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="6"/>
       <c r="K62" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>1</v>
@@ -3789,33 +3787,33 @@
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
@@ -3834,21 +3832,21 @@
       <c r="I64" s="3"/>
       <c r="J64" s="6"/>
       <c r="K64" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1</v>
@@ -3863,27 +3861,27 @@
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="6"/>
       <c r="K65" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
@@ -3898,29 +3896,29 @@
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="6"/>
       <c r="K66" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>0</v>
@@ -3937,21 +3935,21 @@
       <c r="I67" s="3"/>
       <c r="J67" s="6"/>
       <c r="K67" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1</v>
@@ -3970,21 +3968,21 @@
       <c r="I68" s="3"/>
       <c r="J68" s="6"/>
       <c r="K68" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>0</v>
@@ -4001,21 +3999,21 @@
       <c r="I69" s="3"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>0</v>
@@ -4032,21 +4030,21 @@
       <c r="I70" s="3"/>
       <c r="J70" s="6"/>
       <c r="K70" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>0</v>
@@ -4063,21 +4061,21 @@
       <c r="I71" s="3"/>
       <c r="J71" s="6"/>
       <c r="K71" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>0</v>
@@ -4096,21 +4094,21 @@
       <c r="I72" s="3"/>
       <c r="J72" s="6"/>
       <c r="K72" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>1</v>
@@ -4125,27 +4123,27 @@
         <v>7</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="6"/>
       <c r="K73" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>1</v>
@@ -4160,29 +4158,29 @@
         <v>7</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="6"/>
       <c r="K74" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1</v>
@@ -4197,27 +4195,27 @@
         <v>7</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="6"/>
       <c r="K75" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>1</v>
@@ -4232,27 +4230,27 @@
         <v>7</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="6"/>
       <c r="K76" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>1</v>
@@ -4267,33 +4265,33 @@
         <v>7</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>1</v>
@@ -4308,29 +4306,29 @@
         <v>7</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="6"/>
       <c r="K78" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>1</v>
@@ -4345,29 +4343,29 @@
         <v>7</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>1</v>
@@ -4382,27 +4380,27 @@
         <v>7</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="6"/>
       <c r="K80" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>1</v>
@@ -4417,29 +4415,29 @@
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="6"/>
       <c r="K81" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1</v>
@@ -4448,39 +4446,39 @@
         <v>9</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="K82" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1</v>
@@ -4499,21 +4497,21 @@
       <c r="I83" s="3"/>
       <c r="J83" s="6"/>
       <c r="K83" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1</v>
@@ -4528,27 +4526,27 @@
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="6"/>
       <c r="K84" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1</v>
@@ -4563,31 +4561,31 @@
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1</v>
@@ -4602,29 +4600,29 @@
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="6"/>
       <c r="K86" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1</v>
@@ -4639,31 +4637,31 @@
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1</v>
@@ -4678,29 +4676,29 @@
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="6"/>
       <c r="K88" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1</v>
@@ -4719,21 +4717,21 @@
       <c r="I89" s="3"/>
       <c r="J89" s="6"/>
       <c r="K89" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1</v>
@@ -4745,34 +4743,34 @@
         <v>18</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1</v>
@@ -4791,21 +4789,21 @@
       <c r="I91" s="3"/>
       <c r="J91" s="6"/>
       <c r="K91" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>0</v>
@@ -4822,21 +4820,21 @@
       <c r="I92" s="3"/>
       <c r="J92" s="6"/>
       <c r="K92" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>0</v>
@@ -4855,21 +4853,21 @@
       <c r="I93" s="3"/>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>0</v>
@@ -4888,21 +4886,21 @@
       <c r="I94" s="3"/>
       <c r="J94" s="6"/>
       <c r="K94" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>1</v>
@@ -4921,21 +4919,21 @@
       <c r="I95" s="3"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>1</v>
@@ -4950,33 +4948,33 @@
         <v>7</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="6"/>
       <c r="K96" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>18</v>
@@ -4987,30 +4985,30 @@
       <c r="I97" s="3"/>
       <c r="J97" s="6"/>
       <c r="K97" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -5018,30 +5016,30 @@
       <c r="I98" s="3"/>
       <c r="J98" s="6"/>
       <c r="K98" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -5049,30 +5047,30 @@
       <c r="I99" s="3"/>
       <c r="J99" s="6"/>
       <c r="K99" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -5080,30 +5078,30 @@
       <c r="I100" s="3"/>
       <c r="J100" s="6"/>
       <c r="K100" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -5111,30 +5109,30 @@
       <c r="I101" s="3"/>
       <c r="J101" s="6"/>
       <c r="K101" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -5142,27 +5140,27 @@
       <c r="I102" s="3"/>
       <c r="J102" s="6"/>
       <c r="K102" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>18</v>
@@ -5175,21 +5173,21 @@
       <c r="I103" s="3"/>
       <c r="J103" s="6"/>
       <c r="K103" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>1</v>
@@ -5204,27 +5202,27 @@
         <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="6"/>
       <c r="K104" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>1</v>
@@ -5239,27 +5237,27 @@
         <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="6"/>
       <c r="K105" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>1</v>
@@ -5274,33 +5272,33 @@
         <v>7</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>0</v>
@@ -5317,21 +5315,21 @@
       <c r="I107" s="3"/>
       <c r="J107" s="6"/>
       <c r="K107" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>0</v>
@@ -5340,7 +5338,7 @@
         <v>24</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -5348,30 +5346,30 @@
       <c r="I108" s="3"/>
       <c r="J108" s="6"/>
       <c r="K108" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5379,21 +5377,21 @@
       <c r="I109" s="3"/>
       <c r="J109" s="6"/>
       <c r="K109" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>1</v>
@@ -5408,29 +5406,29 @@
         <v>7</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="6"/>
       <c r="K110" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>1</v>
@@ -5449,21 +5447,21 @@
       <c r="I111" s="3"/>
       <c r="J111" s="6"/>
       <c r="K111" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>1</v>
@@ -5478,33 +5476,33 @@
         <v>7</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>1</v>
@@ -5523,21 +5521,21 @@
       <c r="I113" s="3"/>
       <c r="J113" s="6"/>
       <c r="K113" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>1</v>
@@ -5556,21 +5554,21 @@
       <c r="I114" s="3"/>
       <c r="J114" s="6"/>
       <c r="K114" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>1</v>
@@ -5589,21 +5587,21 @@
       <c r="I115" s="3"/>
       <c r="J115" s="6"/>
       <c r="K115" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1</v>
@@ -5622,21 +5620,21 @@
       <c r="I116" s="3"/>
       <c r="J116" s="6"/>
       <c r="K116" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>1</v>
@@ -5651,27 +5649,27 @@
         <v>7</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="6"/>
       <c r="K117" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>1</v>
@@ -5690,21 +5688,21 @@
       <c r="I118" s="3"/>
       <c r="J118" s="6"/>
       <c r="K118" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>1</v>
@@ -5719,29 +5717,29 @@
         <v>7</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="6"/>
       <c r="K119" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>1</v>
@@ -5756,27 +5754,27 @@
         <v>7</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="6"/>
       <c r="K120" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>1</v>
@@ -5788,34 +5786,34 @@
         <v>6</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J121" s="6"/>
       <c r="K121" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1</v>
@@ -5834,21 +5832,21 @@
       <c r="I122" s="3"/>
       <c r="J122" s="6"/>
       <c r="K122" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>1</v>
@@ -5867,21 +5865,21 @@
       <c r="I123" s="3"/>
       <c r="J123" s="6"/>
       <c r="K123" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>0</v>
@@ -5900,21 +5898,21 @@
       <c r="I124" s="3"/>
       <c r="J124" s="6"/>
       <c r="K124" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>1</v>
@@ -5929,33 +5927,33 @@
         <v>7</v>
       </c>
       <c r="G125" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J125" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="K125" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1</v>
@@ -5974,21 +5972,21 @@
       <c r="I126" s="3"/>
       <c r="J126" s="6"/>
       <c r="K126" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1</v>
@@ -6007,21 +6005,21 @@
       <c r="I127" s="3"/>
       <c r="J127" s="6"/>
       <c r="K127" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>1</v>
@@ -6036,27 +6034,27 @@
         <v>7</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="6"/>
       <c r="K128" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>1</v>
@@ -6075,21 +6073,21 @@
       <c r="I129" s="3"/>
       <c r="J129" s="6"/>
       <c r="K129" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1</v>
@@ -6104,27 +6102,27 @@
         <v>26</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="6"/>
       <c r="K130" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>1</v>
@@ -6139,27 +6137,27 @@
         <v>7</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="6"/>
       <c r="K131" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>1</v>
@@ -6174,31 +6172,31 @@
         <v>7</v>
       </c>
       <c r="G132" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1</v>
@@ -6217,21 +6215,21 @@
       <c r="I133" s="3"/>
       <c r="J133" s="6"/>
       <c r="K133" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>0</v>
@@ -6240,7 +6238,7 @@
         <v>24</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>7</v>
@@ -6250,21 +6248,21 @@
       <c r="I134" s="3"/>
       <c r="J134" s="6"/>
       <c r="K134" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>1</v>
@@ -6277,27 +6275,27 @@
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="6"/>
       <c r="K135" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>1</v>
@@ -6310,29 +6308,29 @@
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="6"/>
       <c r="K136" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>1</v>
@@ -6345,29 +6343,29 @@
         <v>7</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="6"/>
       <c r="K137" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>1</v>
@@ -6380,33 +6378,33 @@
         <v>7</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>1</v>
@@ -6419,27 +6417,27 @@
         <v>7</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="6"/>
       <c r="K139" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>1</v>
@@ -6452,29 +6450,29 @@
         <v>7</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="6"/>
       <c r="K140" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1</v>
@@ -6487,33 +6485,33 @@
         <v>7</v>
       </c>
       <c r="G141" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J141" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="K141" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M141" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1</v>
@@ -6526,29 +6524,29 @@
         <v>7</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="6"/>
       <c r="K142" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1</v>
@@ -6561,31 +6559,31 @@
         <v>7</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>1</v>
@@ -6600,27 +6598,27 @@
         <v>7</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="6"/>
       <c r="K144" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1</v>
@@ -6633,35 +6631,35 @@
         <v>7</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="6"/>
       <c r="K145" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>18</v>
@@ -6672,21 +6670,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="6"/>
       <c r="K146" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>0</v>
@@ -6695,7 +6693,7 @@
         <v>24</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -6703,21 +6701,21 @@
       <c r="I147" s="3"/>
       <c r="J147" s="6"/>
       <c r="K147" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>0</v>
@@ -6726,7 +6724,7 @@
         <v>24</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -6734,30 +6732,30 @@
       <c r="I148" s="3"/>
       <c r="J148" s="6"/>
       <c r="K148" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M148" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -6765,21 +6763,21 @@
       <c r="I149" s="3"/>
       <c r="J149" s="6"/>
       <c r="K149" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L149" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="M149" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="M149" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>1</v>
@@ -6794,27 +6792,27 @@
         <v>7</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="6"/>
       <c r="K150" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M150" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>1</v>
@@ -6823,39 +6821,39 @@
         <v>9</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H151" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J151" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I151" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="K151" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1</v>
@@ -6870,29 +6868,29 @@
         <v>7</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="6"/>
       <c r="K152" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>1</v>
@@ -6907,29 +6905,29 @@
         <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="6"/>
       <c r="K153" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L153" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="M153" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="B154" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>1</v>
@@ -6944,40 +6942,40 @@
         <v>7</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H154" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="J154" s="6"/>
       <c r="K154" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D155" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -6985,21 +6983,21 @@
       <c r="I155" s="3"/>
       <c r="J155" s="6"/>
       <c r="K155" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>0</v>
@@ -7016,21 +7014,21 @@
       <c r="I156" s="3"/>
       <c r="J156" s="6"/>
       <c r="K156" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>0</v>
@@ -7039,7 +7037,7 @@
         <v>24</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -7047,21 +7045,21 @@
       <c r="I157" s="3"/>
       <c r="J157" s="6"/>
       <c r="K157" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>0</v>
@@ -7070,7 +7068,7 @@
         <v>24</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7078,21 +7076,21 @@
       <c r="I158" s="3"/>
       <c r="J158" s="6"/>
       <c r="K158" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>1</v>
@@ -7107,27 +7105,27 @@
         <v>7</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="6"/>
       <c r="K159" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>0</v>
@@ -7142,29 +7140,29 @@
         <v>7</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="6"/>
       <c r="K160" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>1</v>
@@ -7179,33 +7177,33 @@
         <v>7</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1</v>
@@ -7220,27 +7218,27 @@
         <v>7</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="6"/>
       <c r="K162" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>0</v>
@@ -7255,29 +7253,29 @@
         <v>7</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="6"/>
       <c r="K163" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1</v>
@@ -7292,29 +7290,29 @@
         <v>7</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="6"/>
       <c r="K164" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1</v>
@@ -7329,27 +7327,27 @@
         <v>7</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="6"/>
       <c r="K165" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L165" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M165" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="B166" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1</v>
@@ -7364,27 +7362,27 @@
         <v>7</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="6"/>
       <c r="K166" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>1</v>
@@ -7403,21 +7401,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="6"/>
       <c r="K167" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1</v>
@@ -7426,39 +7424,39 @@
         <v>9</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1</v>
@@ -7473,29 +7471,29 @@
         <v>7</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="6"/>
       <c r="K169" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1</v>
@@ -7510,31 +7508,31 @@
         <v>7</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>1</v>
@@ -7549,29 +7547,29 @@
         <v>7</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="6"/>
       <c r="K171" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M171" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>0</v>
@@ -7588,27 +7586,27 @@
       <c r="I172" s="3"/>
       <c r="J172" s="6"/>
       <c r="K172" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M172" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>18</v>
@@ -7619,21 +7617,21 @@
       <c r="I173" s="3"/>
       <c r="J173" s="6"/>
       <c r="K173" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>0</v>
@@ -7642,7 +7640,7 @@
         <v>24</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -7650,21 +7648,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="6"/>
       <c r="K174" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>0</v>
@@ -7673,7 +7671,7 @@
         <v>24</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -7681,21 +7679,21 @@
       <c r="I175" s="3"/>
       <c r="J175" s="6"/>
       <c r="K175" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>0</v>
@@ -7704,7 +7702,7 @@
         <v>24</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -7712,21 +7710,21 @@
       <c r="I176" s="3"/>
       <c r="J176" s="6"/>
       <c r="K176" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>0</v>
@@ -7735,7 +7733,7 @@
         <v>24</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -7743,27 +7741,27 @@
       <c r="I177" s="3"/>
       <c r="J177" s="6"/>
       <c r="K177" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>6</v>
@@ -7774,21 +7772,21 @@
       <c r="I178" s="3"/>
       <c r="J178" s="6"/>
       <c r="K178" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>0</v>
@@ -7807,21 +7805,21 @@
       <c r="I179" s="3"/>
       <c r="J179" s="6"/>
       <c r="K179" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>1</v>
@@ -7830,39 +7828,39 @@
         <v>9</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I180" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J180" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J180" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="K180" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>1</v>
@@ -7877,33 +7875,33 @@
         <v>7</v>
       </c>
       <c r="G181" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H181" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="K181" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>1</v>
@@ -7918,31 +7916,31 @@
         <v>7</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H182" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I182" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M182" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>0</v>
@@ -7959,21 +7957,21 @@
       <c r="I183" s="3"/>
       <c r="J183" s="6"/>
       <c r="K183" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M183" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>0</v>
@@ -7982,7 +7980,7 @@
         <v>24</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -7990,21 +7988,21 @@
       <c r="I184" s="3"/>
       <c r="J184" s="6"/>
       <c r="K184" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M184" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>1</v>
@@ -8017,27 +8015,27 @@
         <v>7</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="6"/>
       <c r="K185" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M185" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>1</v>
@@ -8050,29 +8048,29 @@
         <v>7</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="6"/>
       <c r="K186" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M186" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>0</v>
@@ -8082,36 +8080,36 @@
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H187" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I187" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I187" s="3" t="s">
+      <c r="J187" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J187" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="K187" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M187" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>1</v>
@@ -8124,31 +8122,31 @@
         <v>7</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1</v>
@@ -8161,27 +8159,27 @@
         <v>7</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="6"/>
       <c r="K189" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M189" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>1</v>
@@ -8194,35 +8192,35 @@
         <v>7</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="6"/>
       <c r="K190" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M190" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>18</v>
@@ -8233,21 +8231,21 @@
       <c r="I191" s="3"/>
       <c r="J191" s="6"/>
       <c r="K191" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>0</v>
@@ -8256,7 +8254,7 @@
         <v>24</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -8264,21 +8262,21 @@
       <c r="I192" s="3"/>
       <c r="J192" s="6"/>
       <c r="K192" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>0</v>
@@ -8287,7 +8285,7 @@
         <v>24</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -8295,21 +8293,21 @@
       <c r="I193" s="3"/>
       <c r="J193" s="6"/>
       <c r="K193" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>0</v>
@@ -8326,21 +8324,21 @@
       <c r="I194" s="3"/>
       <c r="J194" s="6"/>
       <c r="K194" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1</v>
@@ -8355,31 +8353,31 @@
         <v>7</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J195" s="6"/>
       <c r="K195" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L195" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M195" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>0</v>
@@ -8398,21 +8396,21 @@
       <c r="I196" s="3"/>
       <c r="J196" s="6"/>
       <c r="K196" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M196" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>1</v>
@@ -8427,26 +8425,26 @@
         <v>7</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="6"/>
       <c r="K197" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" s="11" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>26</v>
@@ -8464,18 +8462,18 @@
         <v>7</v>
       </c>
       <c r="K198" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L198" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" s="13" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="L198" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M198" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A199" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>26</v>
@@ -8490,18 +8488,18 @@
         <v>18</v>
       </c>
       <c r="K199" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L199" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M199" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="13" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>26</v>
@@ -8516,34 +8514,41 @@
         <v>18</v>
       </c>
       <c r="K200" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L200" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M200" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="M206" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D206" xr:uid="{FF603557-D4D5-1347-B417-A14F54C2E0DC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Mesečnik"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Minority media/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/Rtrainingsvarious/Minority media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2124AFA-5FE8-AA45-9E78-FF79C127E06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585088C0-5D3F-A34B-A0DB-106E47294393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$206</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:P206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2241,7 +2241,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>194</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>204</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>64</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>214</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>216</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>221</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>222</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>224</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>226</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>227</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>261</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>231</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>266</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>61</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>234</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>259</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>81</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>83</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>84</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>85</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>86</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>87</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>88</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>237</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>101</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>90</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>92</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>97</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>103</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>117</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>121</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>122</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>129</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>130</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>135</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>136</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>137</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>139</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>144</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>145</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>149</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>150</v>
       </c>
@@ -8542,10 +8542,10 @@
       <c r="M206" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D206" xr:uid="{FF603557-D4D5-1347-B417-A14F54C2E0DC}">
+  <autoFilter ref="B1:B206" xr:uid="{102B4AAF-BBF0-6E44-AD85-B645532B70C8}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Mesečnik"/>
+        <filter val="Mađarski"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/manjinskimediji.xlsx
+++ b/manjinskimediji.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/Rtrainingsvarious/Minority media/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/Rtrainingsvarious/Minority media/minoritshiny/manjinski mediji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585088C0-5D3F-A34B-A0DB-106E47294393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538CF27-60C0-284F-BB91-A1862C7885CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="1600" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$204</definedName>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">Sheet1!$A$72</definedName>
     <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$3</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
   <si>
     <t>Primarni jezik</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Web-portal</t>
   </si>
   <si>
-    <t>Informativno--zabavni</t>
-  </si>
-  <si>
     <t>www.presheva.com</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Višenedeljnik</t>
   </si>
   <si>
-    <t>Informaticni</t>
-  </si>
-  <si>
     <t>Bosanski</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>Македонска виделина</t>
   </si>
   <si>
-    <t>Informatini</t>
-  </si>
-  <si>
     <t>Ѕуница</t>
   </si>
   <si>
@@ -1277,6 +1268,36 @@
   </si>
   <si>
     <t>https://bujanoci.net/</t>
+  </si>
+  <si>
+    <t>Bečejski dani</t>
+  </si>
+  <si>
+    <t>http://becejskidani.co.rs</t>
+  </si>
+  <si>
+    <t>Vršačka kula</t>
+  </si>
+  <si>
+    <t>Informativno-reklamni</t>
+  </si>
+  <si>
+    <t>http://www.vrsackakula.vrsac.com</t>
+  </si>
+  <si>
+    <t>Szenttamas.rs</t>
+  </si>
+  <si>
+    <t>Szo-beszed.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	https://szenttamas.rs</t>
+  </si>
+  <si>
+    <t>MALI IĐOŠ</t>
+  </si>
+  <si>
+    <t>https://szo-beszed.org</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1352,19 +1373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1389,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1414,14 +1422,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1703,11 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1718,13 +1720,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1733,37 +1735,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1782,21 +1784,21 @@
       <c r="I2" s="3"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1815,21 +1817,21 @@
       <c r="I3" s="3"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -1846,21 +1848,21 @@
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -1877,21 +1879,21 @@
       <c r="I5" s="3"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
@@ -1906,27 +1908,27 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
@@ -1945,21 +1947,21 @@
       <c r="I7" s="3"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
@@ -1978,21 +1980,21 @@
       <c r="I8" s="3"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -2007,27 +2009,27 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2036,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2044,30 +2046,30 @@
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>7</v>
@@ -2077,21 +2079,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
@@ -2100,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2108,21 +2110,21 @@
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -2131,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2139,21 +2141,21 @@
       <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
@@ -2162,7 +2164,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2170,21 +2172,21 @@
       <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -2193,7 +2195,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2201,21 +2203,21 @@
       <c r="I15" s="3"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -2224,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2232,30 +2234,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2263,21 +2265,21 @@
       <c r="I17" s="3"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
@@ -2296,21 +2298,21 @@
       <c r="I18" s="3"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
@@ -2319,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>7</v>
@@ -2329,21 +2331,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
@@ -2362,21 +2364,21 @@
       <c r="I20" s="3"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
@@ -2393,21 +2395,21 @@
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>0</v>
@@ -2424,21 +2426,21 @@
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
@@ -2455,21 +2457,21 @@
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -2488,21 +2490,21 @@
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>1</v>
@@ -2511,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>7</v>
@@ -2521,30 +2523,30 @@
       <c r="I25" s="3"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2552,21 +2554,21 @@
       <c r="I26" s="3"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>0</v>
@@ -2575,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2583,21 +2585,21 @@
       <c r="I27" s="3"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2614,21 +2616,21 @@
       <c r="I28" s="3"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>0</v>
@@ -2637,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2645,21 +2647,21 @@
       <c r="I29" s="3"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>0</v>
@@ -2668,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2676,30 +2678,30 @@
       <c r="I30" s="3"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>7</v>
@@ -2709,30 +2711,30 @@
       <c r="I31" s="3"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>7</v>
@@ -2742,21 +2744,21 @@
       <c r="I32" s="3"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -2775,21 +2777,21 @@
       <c r="I33" s="3"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1</v>
@@ -2804,27 +2806,27 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
@@ -2839,27 +2841,27 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>0</v>
@@ -2878,21 +2880,21 @@
       <c r="I36" s="3"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1</v>
@@ -2907,27 +2909,27 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>0</v>
@@ -2944,21 +2946,21 @@
       <c r="I38" s="3"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -2967,7 +2969,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>7</v>
@@ -2977,21 +2979,21 @@
       <c r="I39" s="3"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
@@ -3000,7 +3002,7 @@
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>7</v>
@@ -3010,21 +3012,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
@@ -3033,7 +3035,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>7</v>
@@ -3043,21 +3045,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>0</v>
@@ -3066,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>7</v>
@@ -3076,30 +3078,30 @@
       <c r="I42" s="3"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3107,21 +3109,21 @@
       <c r="I43" s="3"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
@@ -3130,44 +3132,44 @@
         <v>12</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3175,27 +3177,27 @@
       <c r="I45" s="3"/>
       <c r="J45" s="6"/>
       <c r="K45" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3206,30 +3208,30 @@
       <c r="I46" s="3"/>
       <c r="J46" s="6"/>
       <c r="K46" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3237,21 +3239,21 @@
       <c r="I47" s="3"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1</v>
@@ -3266,29 +3268,29 @@
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
@@ -3307,21 +3309,21 @@
       <c r="I49" s="3"/>
       <c r="J49" s="6"/>
       <c r="K49" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
@@ -3340,23 +3342,23 @@
       <c r="I50" s="3"/>
       <c r="J50" s="8"/>
       <c r="K50" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
@@ -3375,21 +3377,21 @@
       <c r="I51" s="3"/>
       <c r="J51" s="6"/>
       <c r="K51" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
@@ -3408,21 +3410,21 @@
       <c r="I52" s="3"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
@@ -3441,21 +3443,21 @@
       <c r="I53" s="3"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
@@ -3474,21 +3476,21 @@
       <c r="I54" s="3"/>
       <c r="J54" s="6"/>
       <c r="K54" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
@@ -3507,21 +3509,21 @@
       <c r="I55" s="3"/>
       <c r="J55" s="6"/>
       <c r="K55" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
@@ -3530,37 +3532,37 @@
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I56" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1</v>
@@ -3569,39 +3571,39 @@
         <v>12</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>0</v>
@@ -3610,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3618,21 +3620,21 @@
       <c r="I58" s="3"/>
       <c r="J58" s="6"/>
       <c r="K58" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
@@ -3647,27 +3649,27 @@
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="6"/>
       <c r="K59" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1</v>
@@ -3686,21 +3688,21 @@
       <c r="I60" s="3"/>
       <c r="J60" s="6"/>
       <c r="K60" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1</v>
@@ -3709,35 +3711,35 @@
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="6"/>
       <c r="K61" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1</v>
@@ -3746,33 +3748,33 @@
         <v>5</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="6"/>
       <c r="K62" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>1</v>
@@ -3787,33 +3789,33 @@
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="J63" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
@@ -3832,21 +3834,21 @@
       <c r="I64" s="3"/>
       <c r="J64" s="6"/>
       <c r="K64" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1</v>
@@ -3861,27 +3863,27 @@
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="6"/>
       <c r="K65" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
@@ -3890,35 +3892,35 @@
         <v>12</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="6"/>
       <c r="K66" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>0</v>
@@ -3927,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3935,21 +3937,21 @@
       <c r="I67" s="3"/>
       <c r="J67" s="6"/>
       <c r="K67" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1</v>
@@ -3958,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>7</v>
@@ -3968,21 +3970,21 @@
       <c r="I68" s="3"/>
       <c r="J68" s="6"/>
       <c r="K68" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>0</v>
@@ -3999,21 +4001,21 @@
       <c r="I69" s="3"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>0</v>
@@ -4030,21 +4032,21 @@
       <c r="I70" s="3"/>
       <c r="J70" s="6"/>
       <c r="K70" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>0</v>
@@ -4061,21 +4063,21 @@
       <c r="I71" s="3"/>
       <c r="J71" s="6"/>
       <c r="K71" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>0</v>
@@ -4094,21 +4096,21 @@
       <c r="I72" s="3"/>
       <c r="J72" s="6"/>
       <c r="K72" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>1</v>
@@ -4123,27 +4125,27 @@
         <v>7</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="6"/>
       <c r="K73" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>1</v>
@@ -4152,35 +4154,35 @@
         <v>9</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="6"/>
       <c r="K74" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1</v>
@@ -4195,27 +4197,27 @@
         <v>7</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="6"/>
       <c r="K75" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>1</v>
@@ -4224,33 +4226,33 @@
         <v>9</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="6"/>
       <c r="K76" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>1</v>
@@ -4259,39 +4261,39 @@
         <v>9</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="J77" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>1</v>
@@ -4300,35 +4302,35 @@
         <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="6"/>
       <c r="K78" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>1</v>
@@ -4337,35 +4339,35 @@
         <v>9</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>1</v>
@@ -4374,33 +4376,33 @@
         <v>9</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="6"/>
       <c r="K80" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>1</v>
@@ -4415,29 +4417,29 @@
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="6"/>
       <c r="K81" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1</v>
@@ -4446,39 +4448,39 @@
         <v>9</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1</v>
@@ -4497,21 +4499,21 @@
       <c r="I83" s="3"/>
       <c r="J83" s="6"/>
       <c r="K83" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1</v>
@@ -4520,33 +4522,33 @@
         <v>9</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="6"/>
       <c r="K84" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1</v>
@@ -4555,37 +4557,37 @@
         <v>9</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1</v>
@@ -4594,35 +4596,35 @@
         <v>9</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="6"/>
       <c r="K86" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1</v>
@@ -4631,37 +4633,37 @@
         <v>9</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1</v>
@@ -4670,35 +4672,35 @@
         <v>9</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="6"/>
       <c r="K88" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1</v>
@@ -4717,21 +4719,21 @@
       <c r="I89" s="3"/>
       <c r="J89" s="6"/>
       <c r="K89" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1</v>
@@ -4740,37 +4742,37 @@
         <v>9</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1</v>
@@ -4789,21 +4791,21 @@
       <c r="I91" s="3"/>
       <c r="J91" s="6"/>
       <c r="K91" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>0</v>
@@ -4812,7 +4814,7 @@
         <v>14</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4820,21 +4822,21 @@
       <c r="I92" s="3"/>
       <c r="J92" s="6"/>
       <c r="K92" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>0</v>
@@ -4843,7 +4845,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>7</v>
@@ -4853,21 +4855,21 @@
       <c r="I93" s="3"/>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>0</v>
@@ -4886,21 +4888,21 @@
       <c r="I94" s="3"/>
       <c r="J94" s="6"/>
       <c r="K94" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>1</v>
@@ -4909,7 +4911,7 @@
         <v>14</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>7</v>
@@ -4919,21 +4921,21 @@
       <c r="I95" s="3"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>1</v>
@@ -4942,42 +4944,42 @@
         <v>14</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="6"/>
       <c r="K96" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -4985,30 +4987,30 @@
       <c r="I97" s="3"/>
       <c r="J97" s="6"/>
       <c r="K97" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -5016,30 +5018,30 @@
       <c r="I98" s="3"/>
       <c r="J98" s="6"/>
       <c r="K98" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -5047,30 +5049,30 @@
       <c r="I99" s="3"/>
       <c r="J99" s="6"/>
       <c r="K99" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -5078,30 +5080,30 @@
       <c r="I100" s="3"/>
       <c r="J100" s="6"/>
       <c r="K100" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -5109,30 +5111,30 @@
       <c r="I101" s="3"/>
       <c r="J101" s="6"/>
       <c r="K101" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -5140,30 +5142,30 @@
       <c r="I102" s="3"/>
       <c r="J102" s="6"/>
       <c r="K102" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>7</v>
@@ -5173,21 +5175,21 @@
       <c r="I103" s="3"/>
       <c r="J103" s="6"/>
       <c r="K103" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>1</v>
@@ -5202,27 +5204,27 @@
         <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="6"/>
       <c r="K104" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>1</v>
@@ -5237,27 +5239,27 @@
         <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="6"/>
       <c r="K105" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>1</v>
@@ -5272,33 +5274,33 @@
         <v>7</v>
       </c>
       <c r="G106" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J106" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="K106" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>0</v>
@@ -5307,7 +5309,7 @@
         <v>14</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -5315,30 +5317,30 @@
       <c r="I107" s="3"/>
       <c r="J107" s="6"/>
       <c r="K107" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -5346,30 +5348,30 @@
       <c r="I108" s="3"/>
       <c r="J108" s="6"/>
       <c r="K108" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5377,21 +5379,21 @@
       <c r="I109" s="3"/>
       <c r="J109" s="6"/>
       <c r="K109" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>1</v>
@@ -5406,29 +5408,29 @@
         <v>7</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="6"/>
       <c r="K110" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>1</v>
@@ -5447,21 +5449,21 @@
       <c r="I111" s="3"/>
       <c r="J111" s="6"/>
       <c r="K111" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>1</v>
@@ -5476,33 +5478,33 @@
         <v>7</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>1</v>
@@ -5511,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>7</v>
@@ -5521,21 +5523,21 @@
       <c r="I113" s="3"/>
       <c r="J113" s="6"/>
       <c r="K113" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>1</v>
@@ -5554,21 +5556,21 @@
       <c r="I114" s="3"/>
       <c r="J114" s="6"/>
       <c r="K114" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>1</v>
@@ -5577,7 +5579,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>7</v>
@@ -5587,21 +5589,21 @@
       <c r="I115" s="3"/>
       <c r="J115" s="6"/>
       <c r="K115" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1</v>
@@ -5620,21 +5622,21 @@
       <c r="I116" s="3"/>
       <c r="J116" s="6"/>
       <c r="K116" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>1</v>
@@ -5643,33 +5645,33 @@
         <v>5</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="6"/>
       <c r="K117" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>1</v>
@@ -5678,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>7</v>
@@ -5688,21 +5690,21 @@
       <c r="I118" s="3"/>
       <c r="J118" s="6"/>
       <c r="K118" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>1</v>
@@ -5717,29 +5719,29 @@
         <v>7</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="6"/>
       <c r="K119" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>1</v>
@@ -5748,33 +5750,33 @@
         <v>9</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="6"/>
       <c r="K120" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>1</v>
@@ -5786,34 +5788,34 @@
         <v>6</v>
       </c>
       <c r="F121" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="H121" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J121" s="6"/>
       <c r="K121" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1</v>
@@ -5832,21 +5834,21 @@
       <c r="I122" s="3"/>
       <c r="J122" s="6"/>
       <c r="K122" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>1</v>
@@ -5855,7 +5857,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
@@ -5865,21 +5867,21 @@
       <c r="I123" s="3"/>
       <c r="J123" s="6"/>
       <c r="K123" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>0</v>
@@ -5898,21 +5900,21 @@
       <c r="I124" s="3"/>
       <c r="J124" s="6"/>
       <c r="K124" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>1</v>
@@ -5921,39 +5923,39 @@
         <v>9</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1</v>
@@ -5972,21 +5974,21 @@
       <c r="I126" s="3"/>
       <c r="J126" s="6"/>
       <c r="K126" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1</v>
@@ -5995,7 +5997,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>7</v>
@@ -6005,21 +6007,21 @@
       <c r="I127" s="3"/>
       <c r="J127" s="6"/>
       <c r="K127" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>1</v>
@@ -6034,27 +6036,27 @@
         <v>7</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="6"/>
       <c r="K128" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>1</v>
@@ -6073,21 +6075,21 @@
       <c r="I129" s="3"/>
       <c r="J129" s="6"/>
       <c r="K129" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1</v>
@@ -6096,33 +6098,33 @@
         <v>9</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="6"/>
       <c r="K130" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L130" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M130" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="B131" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>1</v>
@@ -6137,27 +6139,27 @@
         <v>7</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="6"/>
       <c r="K131" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>1</v>
@@ -6166,37 +6168,37 @@
         <v>9</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1</v>
@@ -6205,7 +6207,7 @@
         <v>9</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>7</v>
@@ -6215,30 +6217,30 @@
       <c r="I133" s="3"/>
       <c r="J133" s="6"/>
       <c r="K133" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>7</v>
@@ -6248,21 +6250,21 @@
       <c r="I134" s="3"/>
       <c r="J134" s="6"/>
       <c r="K134" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>1</v>
@@ -6275,27 +6277,27 @@
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="6"/>
       <c r="K135" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>1</v>
@@ -6308,29 +6310,29 @@
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="6"/>
       <c r="K136" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>1</v>
@@ -6343,29 +6345,29 @@
         <v>7</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="6"/>
       <c r="K137" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>1</v>
@@ -6378,33 +6380,33 @@
         <v>7</v>
       </c>
       <c r="G138" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I138" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>1</v>
@@ -6417,27 +6419,27 @@
         <v>7</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="6"/>
       <c r="K139" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>1</v>
@@ -6450,29 +6452,29 @@
         <v>7</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="6"/>
       <c r="K140" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1</v>
@@ -6485,33 +6487,33 @@
         <v>7</v>
       </c>
       <c r="G141" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I141" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="J141" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M141" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1</v>
@@ -6524,29 +6526,29 @@
         <v>7</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="6"/>
       <c r="K142" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1</v>
@@ -6559,31 +6561,31 @@
         <v>7</v>
       </c>
       <c r="G143" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I143" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>1</v>
@@ -6592,33 +6594,33 @@
         <v>9</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="6"/>
       <c r="K144" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1</v>
@@ -6631,38 +6633,38 @@
         <v>7</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="6"/>
       <c r="K145" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -6670,30 +6672,30 @@
       <c r="I146" s="3"/>
       <c r="J146" s="6"/>
       <c r="K146" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -6701,30 +6703,30 @@
       <c r="I147" s="3"/>
       <c r="J147" s="6"/>
       <c r="K147" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -6732,30 +6734,30 @@
       <c r="I148" s="3"/>
       <c r="J148" s="6"/>
       <c r="K148" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M148" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -6763,21 +6765,21 @@
       <c r="I149" s="3"/>
       <c r="J149" s="6"/>
       <c r="K149" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M149" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>1</v>
@@ -6792,27 +6794,27 @@
         <v>7</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="6"/>
       <c r="K150" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M150" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>1</v>
@@ -6821,39 +6823,39 @@
         <v>9</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1</v>
@@ -6862,35 +6864,35 @@
         <v>9</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="6"/>
       <c r="K152" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>1</v>
@@ -6905,29 +6907,29 @@
         <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="6"/>
       <c r="K153" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>1</v>
@@ -6936,46 +6938,46 @@
         <v>9</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J154" s="6"/>
       <c r="K154" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -6983,30 +6985,30 @@
       <c r="I155" s="3"/>
       <c r="J155" s="6"/>
       <c r="K155" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -7014,30 +7016,30 @@
       <c r="I156" s="3"/>
       <c r="J156" s="6"/>
       <c r="K156" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -7045,30 +7047,30 @@
       <c r="I157" s="3"/>
       <c r="J157" s="6"/>
       <c r="K157" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7076,21 +7078,21 @@
       <c r="I158" s="3"/>
       <c r="J158" s="6"/>
       <c r="K158" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>1</v>
@@ -7099,33 +7101,33 @@
         <v>5</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="6"/>
       <c r="K159" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>0</v>
@@ -7140,29 +7142,29 @@
         <v>7</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="6"/>
       <c r="K160" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>1</v>
@@ -7171,39 +7173,39 @@
         <v>5</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1</v>
@@ -7218,27 +7220,27 @@
         <v>7</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="6"/>
       <c r="K162" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>0</v>
@@ -7253,29 +7255,29 @@
         <v>7</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="6"/>
       <c r="K163" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1</v>
@@ -7284,35 +7286,35 @@
         <v>9</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G164" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H164" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="6"/>
       <c r="K164" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1</v>
@@ -7321,33 +7323,33 @@
         <v>9</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="6"/>
       <c r="K165" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1</v>
@@ -7356,33 +7358,33 @@
         <v>9</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="6"/>
       <c r="K166" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>1</v>
@@ -7401,21 +7403,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="6"/>
       <c r="K167" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1</v>
@@ -7424,39 +7426,39 @@
         <v>9</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1</v>
@@ -7465,35 +7467,35 @@
         <v>9</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="6"/>
       <c r="K169" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1</v>
@@ -7508,31 +7510,31 @@
         <v>7</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>1</v>
@@ -7541,35 +7543,35 @@
         <v>9</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="6"/>
       <c r="K171" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M171" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>0</v>
@@ -7578,7 +7580,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -7586,30 +7588,30 @@
       <c r="I172" s="3"/>
       <c r="J172" s="6"/>
       <c r="K172" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M172" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -7617,30 +7619,30 @@
       <c r="I173" s="3"/>
       <c r="J173" s="6"/>
       <c r="K173" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -7648,30 +7650,30 @@
       <c r="I174" s="3"/>
       <c r="J174" s="6"/>
       <c r="K174" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -7679,30 +7681,30 @@
       <c r="I175" s="3"/>
       <c r="J175" s="6"/>
       <c r="K175" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -7710,30 +7712,30 @@
       <c r="I176" s="3"/>
       <c r="J176" s="6"/>
       <c r="K176" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -7741,27 +7743,27 @@
       <c r="I177" s="3"/>
       <c r="J177" s="6"/>
       <c r="K177" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>6</v>
@@ -7772,21 +7774,21 @@
       <c r="I178" s="3"/>
       <c r="J178" s="6"/>
       <c r="K178" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>0</v>
@@ -7805,21 +7807,21 @@
       <c r="I179" s="3"/>
       <c r="J179" s="6"/>
       <c r="K179" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>1</v>
@@ -7828,39 +7830,39 @@
         <v>9</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>1</v>
@@ -7875,33 +7877,33 @@
         <v>7</v>
       </c>
       <c r="G181" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H181" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H181" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I181" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>1</v>
@@ -7910,46 +7912,46 @@
         <v>9</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M182" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -7957,30 +7959,30 @@
       <c r="I183" s="3"/>
       <c r="J183" s="6"/>
       <c r="K183" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M183" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -7988,21 +7990,21 @@
       <c r="I184" s="3"/>
       <c r="J184" s="6"/>
       <c r="K184" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M184" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>1</v>
@@ -8015,27 +8017,27 @@
         <v>7</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="6"/>
       <c r="K185" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M185" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>1</v>
@@ -8048,29 +8050,29 @@
         <v>7</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="6"/>
       <c r="K186" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M186" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>0</v>
@@ -8080,36 +8082,36 @@
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M187" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>1</v>
@@ -8122,31 +8124,31 @@
         <v>7</v>
       </c>
       <c r="G188" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H188" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I188" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1</v>
@@ -8159,27 +8161,27 @@
         <v>7</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="6"/>
       <c r="K189" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M189" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>1</v>
@@ -8192,38 +8194,38 @@
         <v>7</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="6"/>
       <c r="K190" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M190" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -8231,30 +8233,30 @@
       <c r="I191" s="3"/>
       <c r="J191" s="6"/>
       <c r="K191" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -8262,30 +8264,30 @@
       <c r="I192" s="3"/>
       <c r="J192" s="6"/>
       <c r="K192" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -8293,21 +8295,21 @@
       <c r="I193" s="3"/>
       <c r="J193" s="6"/>
       <c r="K193" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>14</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -8324,21 +8326,21 @@
       <c r="I194" s="3"/>
       <c r="J194" s="6"/>
       <c r="K194" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1</v>
@@ -8347,37 +8349,37 @@
         <v>9</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G195" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H195" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H195" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I195" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J195" s="6"/>
       <c r="K195" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L195" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M195" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>0</v>
@@ -8386,7 +8388,7 @@
         <v>14</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>7</v>
@@ -8396,21 +8398,21 @@
       <c r="I196" s="3"/>
       <c r="J196" s="6"/>
       <c r="K196" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M196" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>1</v>
@@ -8419,64 +8421,68 @@
         <v>9</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="6"/>
       <c r="K197" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" s="11" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C198" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A198" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E198" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F198" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K198" s="12" t="s">
+      <c r="E198" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L198" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M198" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="L198" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="M198" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" s="13" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:13" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>0</v>
@@ -8485,24 +8491,29 @@
         <v>14</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K199" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="L199" s="13" t="s">
-        <v>177</v>
+        <v>17</v>
+      </c>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="M199" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" s="13" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>0</v>
@@ -8511,44 +8522,159 @@
         <v>14</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K200" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="L200" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="M200" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L200" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M200" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M201" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M201" s="11"/>
-    </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M202" s="11"/>
-    </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M203" s="11"/>
-    </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M204" s="11"/>
-    </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M205" s="11"/>
-    </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M206" s="11"/>
+      <c r="B202" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L202" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M202" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L203" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M203" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L204" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M204" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M205" s="10"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M206" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B206" xr:uid="{102B4AAF-BBF0-6E44-AD85-B645532B70C8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Mađarski"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M204" xr:uid="{CD38F0B2-94D7-FB43-9112-4BE6C6AF0A27}"/>
   <hyperlinks>
     <hyperlink ref="A3" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A38" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
